--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IMC_NUC.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IMC_NUC.XLSX
@@ -130,6 +130,9 @@
     <t>Domingo</t>
   </si>
   <si>
+    <t>GENILSON DOS S LIMA</t>
+  </si>
+  <si>
     <t>ANTONIO CARLOS MORAES</t>
   </si>
   <si>
@@ -145,13 +148,10 @@
     <t> </t>
   </si>
   <si>
-    <t> </t>
+    <t>2254</t>
   </si>
   <si>
     <t>2806</t>
-  </si>
-  <si>
-    <t> </t>
   </si>
   <si>
     <t> </t>
@@ -3519,12 +3519,12 @@
       </c>
       <c r="M12" s="174" t="str">
         <f>G12</f>
-        <v>ANTONIO CARLOS MORAES</v>
+        <v>GENILSON DOS S LIMA</v>
       </c>
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
         <f>H12</f>
-        <v> </v>
+        <v>ANTONIO CARLOS MORAES</v>
       </c>
       <c r="P12" s="161" t="str">
         <f>I12</f>
@@ -3545,13 +3545,13 @@
       <c r="T12" s="189"/>
       <c r="U12" s="174" t="str">
         <f>G12</f>
-        <v>ANTONIO CARLOS MORAES</v>
+        <v>GENILSON DOS S LIMA</v>
       </c>
       <c r="V12" s="161"/>
       <c r="W12" s="161"/>
       <c r="X12" s="161" t="str">
         <f>H12</f>
-        <v> </v>
+        <v>ANTONIO CARLOS MORAES</v>
       </c>
       <c r="Y12" s="161" t="str">
         <f>I12</f>
@@ -3571,11 +3571,11 @@
       </c>
       <c r="AC12" s="181" t="str">
         <f t="shared" ref="AC12:AH12" si="0">G12</f>
-        <v>ANTONIO CARLOS MORAES</v>
+        <v>GENILSON DOS S LIMA</v>
       </c>
       <c r="AD12" s="183" t="str">
         <f t="shared" si="0"/>
-        <v> </v>
+        <v>ANTONIO CARLOS MORAES</v>
       </c>
       <c r="AE12" s="161" t="str">
         <f t="shared" si="0"/>
@@ -3595,11 +3595,11 @@
       </c>
       <c r="AI12" s="185" t="str">
         <f t="shared" ref="AI12:AN12" si="1">G12</f>
-        <v>ANTONIO CARLOS MORAES</v>
+        <v>GENILSON DOS S LIMA</v>
       </c>
       <c r="AJ12" s="183" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>ANTONIO CARLOS MORAES</v>
       </c>
       <c r="AK12" s="161" t="str">
         <f t="shared" si="1"/>
@@ -3899,12 +3899,12 @@
       </c>
       <c r="M19" s="191" t="str">
         <f>G19</f>
-        <v>2806</v>
+        <v>2254</v>
       </c>
       <c r="N19" s="172"/>
       <c r="O19" s="172" t="str">
         <f>H19</f>
-        <v> </v>
+        <v>2806</v>
       </c>
       <c r="P19" s="172" t="str">
         <f>I19</f>
@@ -3925,13 +3925,13 @@
       <c r="T19" s="209"/>
       <c r="U19" s="191" t="str">
         <f>G19</f>
-        <v>2806</v>
+        <v>2254</v>
       </c>
       <c r="V19" s="172"/>
       <c r="W19" s="172"/>
       <c r="X19" s="172" t="str">
         <f>H19</f>
-        <v> </v>
+        <v>2806</v>
       </c>
       <c r="Y19" s="172" t="str">
         <f>I19</f>
@@ -3951,11 +3951,11 @@
       </c>
       <c r="AC19" s="207" t="str">
         <f t="shared" ref="AC19:AH19" si="2">G19</f>
-        <v>2806</v>
+        <v>2254</v>
       </c>
       <c r="AD19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v> </v>
+        <v>2806</v>
       </c>
       <c r="AE19" s="172" t="str">
         <f t="shared" si="2"/>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="AI19" s="205" t="str">
         <f t="shared" ref="AI19:AN19" si="3">G19</f>
-        <v>2806</v>
+        <v>2254</v>
       </c>
       <c r="AJ19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v> </v>
+        <v>2806</v>
       </c>
       <c r="AK19" s="172" t="str">
         <f t="shared" si="3"/>
@@ -6605,11 +6605,11 @@
       <c r="F12" s="159"/>
       <c r="G12" s="174" t="str">
         <f>'Segunda a Sexta'!G12:G18</f>
-        <v>ANTONIO CARLOS MORAES</v>
+        <v>GENILSON DOS S LIMA</v>
       </c>
       <c r="H12" s="161" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v> </v>
+        <v>ANTONIO CARLOS MORAES</v>
       </c>
       <c r="I12" s="161" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
@@ -6629,12 +6629,12 @@
       </c>
       <c r="M12" s="174" t="str">
         <f>'Segunda a Sexta'!G12:G18</f>
-        <v>ANTONIO CARLOS MORAES</v>
+        <v>GENILSON DOS S LIMA</v>
       </c>
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v> </v>
+        <v>ANTONIO CARLOS MORAES</v>
       </c>
       <c r="P12" s="187" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
@@ -6937,11 +6937,11 @@
       </c>
       <c r="G19" s="258" t="str">
         <f>'Segunda a Sexta'!G19:G20</f>
-        <v>2806</v>
+        <v>2254</v>
       </c>
       <c r="H19" s="168" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v> </v>
+        <v>2806</v>
       </c>
       <c r="I19" s="168" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
@@ -6961,12 +6961,12 @@
       </c>
       <c r="M19" s="191" t="str">
         <f>'Segunda a Sexta'!G19:G20</f>
-        <v>2806</v>
+        <v>2254</v>
       </c>
       <c r="N19" s="172"/>
       <c r="O19" s="257" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v> </v>
+        <v>2806</v>
       </c>
       <c r="P19" s="257" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
